--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceoll\Documents\Masters\MASTERS SELECT\AGH\IERP\ELAND-main\ELAND-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26E2A42-3B2D-4B2A-91EC-577E4FA2F47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7746AD8B-66A4-47AB-815C-4D16D869757F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="203">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1206,6 +1206,21 @@
   </si>
   <si>
     <t>S2W2D2</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>STG_DN_1P</t>
+  </si>
+  <si>
+    <t>Storage Tech</t>
+  </si>
+  <si>
+    <t>ELC_MV</t>
+  </si>
+  <si>
+    <t>Electricity medium voltage</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1882,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2081,6 +2096,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2200,7 +2220,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2411,7 +2431,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3205,21 +3225,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>92</v>
       </c>
@@ -3234,10 +3254,10 @@
       <c r="L2" s="104"/>
       <c r="M2" s="104"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -3245,7 +3265,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -3280,7 +3300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="F6">
         <v>1</v>
       </c>
@@ -3306,7 +3326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>82</v>
       </c>
@@ -3314,7 +3334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>84</v>
       </c>
@@ -3346,7 +3366,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>85</v>
       </c>
@@ -3354,7 +3374,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>87</v>
       </c>
@@ -3386,7 +3406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>93</v>
       </c>
@@ -3409,7 +3429,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -3441,7 +3461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="9" t="s">
         <v>100</v>
       </c>
@@ -3462,9 +3482,9 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>133</v>
       </c>
@@ -3483,7 +3503,7 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3492,29 +3512,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L23"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:K13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="3.265625" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" customWidth="1"/>
+    <col min="6" max="6" width="20.265625" customWidth="1"/>
+    <col min="7" max="7" width="5.86328125" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.265625" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="3.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3527,8 +3547,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="17"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -3541,7 +3561,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="18"/>
       <c r="C5" s="90" t="s">
         <v>1</v>
@@ -3556,7 +3576,7 @@
       <c r="K5" s="90"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="18"/>
       <c r="C6" s="55" t="s">
         <v>135</v>
@@ -3587,7 +3607,7 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="18"/>
       <c r="C7" s="92" t="s">
         <v>9</v>
@@ -3618,7 +3638,7 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="18"/>
       <c r="C8" s="68" t="s">
         <v>15</v>
@@ -3641,7 +3661,7 @@
       <c r="K8" s="68"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="18"/>
       <c r="C9" s="77" t="s">
         <v>15</v>
@@ -3664,7 +3684,7 @@
       <c r="K9" s="77"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="18"/>
       <c r="C10" s="68" t="s">
         <v>15</v>
@@ -3687,7 +3707,7 @@
       <c r="K10" s="68"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="18"/>
       <c r="C11" s="77" t="s">
         <v>15</v>
@@ -3712,7 +3732,7 @@
       </c>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
       <c r="C12" s="68" t="s">
         <v>15</v>
@@ -3735,7 +3755,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="18"/>
       <c r="C13" s="103" t="s">
         <v>138</v>
@@ -3758,89 +3778,112 @@
       <c r="K13" s="103"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="105" t="s">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="18"/>
+      <c r="C14" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="118" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="18" spans="3:5" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="62" t="s">
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C19" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D19" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="107"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="59" t="s">
+      <c r="E19" s="107"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C20" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D20" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="60" t="s">
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C21" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D21" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="109"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="59" t="s">
+      <c r="E21" s="109"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C22" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D22" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="110"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="60" t="s">
+      <c r="E22" s="110"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C23" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="109" t="s">
+      <c r="D23" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="109"/>
-    </row>
-    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="61" t="s">
+      <c r="E23" s="109"/>
+    </row>
+    <row r="24" spans="3:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C24" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D24" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E24" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3849,33 +3892,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L33"/>
+  <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="3.265625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="10.86328125" customWidth="1"/>
+    <col min="12" max="12" width="3.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="17.25" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="17"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -3888,7 +3931,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="18"/>
       <c r="C5" s="27" t="s">
         <v>19</v>
@@ -3903,7 +3946,7 @@
       <c r="K5" s="29"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="18"/>
       <c r="C6" s="30" t="s">
         <v>20</v>
@@ -3934,7 +3977,7 @@
       </c>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="C7" s="97" t="s">
         <v>29</v>
@@ -3965,7 +4008,7 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="18"/>
       <c r="C8" s="100" t="s">
         <v>65</v>
@@ -3980,7 +4023,7 @@
       <c r="K8" s="102"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="18"/>
       <c r="C9" s="32" t="s">
         <v>59</v>
@@ -4005,7 +4048,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="18"/>
       <c r="C10" s="34" t="s">
         <v>38</v>
@@ -4030,7 +4073,7 @@
       <c r="K10" s="35"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="18"/>
       <c r="C11" s="32" t="s">
         <v>38</v>
@@ -4055,7 +4098,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
       <c r="C12" s="100" t="s">
         <v>66</v>
@@ -4070,7 +4113,7 @@
       <c r="K12" s="102"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="18"/>
       <c r="C13" s="32" t="s">
         <v>39</v>
@@ -4095,7 +4138,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="18"/>
       <c r="C14" s="34" t="s">
         <v>39</v>
@@ -4120,7 +4163,7 @@
       <c r="K14" s="35"/>
       <c r="L14" s="23"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="18"/>
       <c r="C15" s="68" t="s">
         <v>39</v>
@@ -4145,7 +4188,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="23"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="18"/>
       <c r="C16" s="87" t="s">
         <v>178</v>
@@ -4160,7 +4203,7 @@
       <c r="K16" s="87"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="18"/>
       <c r="C17" s="68" t="s">
         <v>183</v>
@@ -4185,7 +4228,7 @@
       <c r="K17" s="68"/>
       <c r="L17" s="23"/>
     </row>
-    <row r="18" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="18"/>
       <c r="C18" s="85" t="s">
         <v>178</v>
@@ -4202,7 +4245,7 @@
       <c r="K18" s="85"/>
       <c r="L18" s="23"/>
     </row>
-    <row r="19" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="18"/>
       <c r="C19" s="89" t="s">
         <v>180</v>
@@ -4227,129 +4270,173 @@
       <c r="K19" s="89"/>
       <c r="L19" s="23"/>
     </row>
-    <row r="20" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="23" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="105" t="s">
+    <row r="20" spans="2:12" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="18"/>
+      <c r="C20" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="23"/>
+    </row>
+    <row r="21" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="18"/>
+      <c r="C21" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="119" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="25" spans="2:12" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C25" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-    </row>
-    <row r="24" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="16" t="s">
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+    </row>
+    <row r="26" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="112" t="s">
+      <c r="D26" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="113"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="63" t="s">
+      <c r="E26" s="113"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C27" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D27" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="116"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="60" t="s">
+      <c r="E27" s="116"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C28" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D28" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="114"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="59" t="s">
+      <c r="E28" s="114"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C29" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="115" t="s">
+      <c r="D29" s="115" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="115"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="60" t="s">
+      <c r="E29" s="115"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C30" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D30" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="114"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="59" t="s">
+      <c r="E30" s="114"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C31" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D31" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="115"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="60" t="s">
+      <c r="E31" s="115"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C32" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="114" t="s">
+      <c r="D32" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="114"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="59" t="s">
+      <c r="E32" s="114"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C33" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D33" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="115"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="60" t="s">
+      <c r="E33" s="115"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C34" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="114" t="s">
+      <c r="D34" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="114"/>
-    </row>
-    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="61" t="s">
+      <c r="E34" s="114"/>
+    </row>
+    <row r="35" spans="3:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C35" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="D35" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="111"/>
+      <c r="E35" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4360,31 +4447,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E11"/>
+    <sheetView topLeftCell="A3" zoomScale="149" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="3.265625" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.265625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="3.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="17"/>
       <c r="C4" s="46"/>
       <c r="D4" s="47"/>
@@ -4393,7 +4480,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="18"/>
       <c r="C5" s="39" t="s">
         <v>41</v>
@@ -4404,7 +4491,7 @@
       <c r="G5" s="38"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="18"/>
       <c r="C6" s="40" t="s">
         <v>22</v>
@@ -4423,7 +4510,7 @@
       </c>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="C7" s="93" t="s">
         <v>43</v>
@@ -4442,7 +4529,7 @@
       </c>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="18"/>
       <c r="C8" s="82" t="s">
         <v>50</v>
@@ -4457,7 +4544,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="18"/>
       <c r="C9" s="44" t="str">
         <f>FI_Process!E9</f>
@@ -4477,7 +4564,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="18"/>
       <c r="C10" s="64" t="str">
         <f>FI_Process!E10</f>
@@ -4497,7 +4584,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="18"/>
       <c r="C11" s="79" t="str">
         <f>FI_Process!E11</f>
@@ -4517,7 +4604,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -4535,32 +4622,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P23"/>
+  <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="101" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="3.265625" customWidth="1"/>
+    <col min="3" max="3" width="17.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.265625" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" customWidth="1"/>
-    <col min="15" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.265625" customWidth="1"/>
+    <col min="15" max="16" width="17.265625" customWidth="1"/>
+    <col min="17" max="17" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="15.4" x14ac:dyDescent="0.45">
       <c r="C2" s="4" t="s">
         <v>116</v>
       </c>
@@ -4568,10 +4655,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="17"/>
       <c r="C4" s="46"/>
       <c r="D4" s="47"/>
@@ -4585,7 +4672,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="18"/>
       <c r="C5" s="39" t="s">
         <v>41</v>
@@ -4601,7 +4688,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="18"/>
       <c r="C6" s="40" t="s">
         <v>22</v>
@@ -4638,7 +4725,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="C7" s="93" t="s">
         <v>43</v>
@@ -4678,7 +4765,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="18"/>
       <c r="C8" s="86" t="s">
         <v>50</v>
@@ -4712,7 +4799,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="18"/>
       <c r="C9" s="44" t="str">
         <f>FI_Process!E13</f>
@@ -4758,7 +4845,7 @@
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="18"/>
       <c r="C10" s="64" t="str">
         <f>FI_Process!E14</f>
@@ -4804,7 +4891,7 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="18"/>
       <c r="C11" s="79" t="str">
         <f>FI_Process!E15</f>
@@ -4842,51 +4929,87 @@
       <c r="O11" s="51"/>
       <c r="P11" s="51"/>
     </row>
-    <row r="12" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="O12" s="58">
+    <row r="12" spans="2:16" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="18"/>
+      <c r="C12" s="119" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="119" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="119" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="119">
+        <v>3</v>
+      </c>
+      <c r="H12" s="119">
+        <v>1</v>
+      </c>
+      <c r="I12" s="119">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="119">
+        <v>1</v>
+      </c>
+      <c r="K12" s="119">
+        <v>3</v>
+      </c>
+      <c r="L12" s="119">
+        <v>3</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="O13" s="58">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C18" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="20" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4902,15 +5025,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="90" t="s">
         <v>41</v>
       </c>
@@ -4924,7 +5047,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="55" t="s">
         <v>22</v>
       </c>
@@ -4956,7 +5079,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="91" t="s">
         <v>43</v>
       </c>
@@ -4988,7 +5111,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="85" t="s">
         <v>50</v>
       </c>
@@ -5014,7 +5137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="89" t="str">
         <f>FI_Process!E17</f>
         <v>EX_ELC_GRID</v>
@@ -5042,7 +5165,7 @@
       <c r="J6" s="89"/>
       <c r="K6" s="89"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5053,43 +5176,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="3.265625" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="18.73046875" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" ht="15.4" x14ac:dyDescent="0.45">
       <c r="C2" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="17"/>
       <c r="C4" s="46"/>
       <c r="D4" s="47"/>
       <c r="E4" s="48"/>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="18"/>
       <c r="C5" s="56" t="s">
         <v>41</v>
@@ -5098,7 +5221,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="70"/>
     </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="18"/>
       <c r="C6" s="54" t="s">
         <v>2</v>
@@ -5113,7 +5236,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
       <c r="C7" s="71" t="s">
         <v>119</v>
@@ -5126,7 +5249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="18"/>
       <c r="C8" s="74" t="s">
         <v>50</v>
@@ -5137,7 +5260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="18"/>
       <c r="C9" s="44" t="str">
         <f>FI_Comm!E$13</f>
@@ -5152,7 +5275,7 @@
         <v>113.63636363636364</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="18"/>
       <c r="C10" s="64" t="str">
         <f>FI_Comm!E$13</f>
@@ -5172,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="18"/>
       <c r="C11" s="44" t="str">
         <f>FI_Comm!E$13</f>
@@ -5192,7 +5315,7 @@
         <v>5.6818181818181825</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
       <c r="C12" s="64" t="str">
         <f>FI_Comm!E$13</f>
@@ -5212,7 +5335,7 @@
         <v>11.363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="18"/>
       <c r="C13" s="44" t="str">
         <f>FI_Comm!E$13</f>
@@ -5232,7 +5355,7 @@
         <v>17.045454545454547</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="18"/>
       <c r="C14" s="64" t="str">
         <f>FI_Comm!E$13</f>
@@ -5252,7 +5375,7 @@
         <v>22.72727272727273</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="18"/>
       <c r="C15" s="44" t="str">
         <f>FI_Comm!E$13</f>
@@ -5272,7 +5395,7 @@
         <v>17.045454545454547</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="18"/>
       <c r="C16" s="64" t="str">
         <f>FI_Comm!E$13</f>
@@ -5292,7 +5415,7 @@
         <v>22.72727272727273</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="18"/>
       <c r="C17" s="79" t="str">
         <f>FI_Comm!E$13</f>
@@ -5316,15 +5439,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -5338,7 +5461,7 @@
       <c r="K21" s="37"/>
       <c r="L21" s="38"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C22" s="40" t="s">
         <v>22</v>
       </c>
@@ -5370,7 +5493,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="38.25" x14ac:dyDescent="0.45">
       <c r="C23" s="42" t="s">
         <v>43</v>
       </c>
@@ -5402,7 +5525,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C24" s="49" t="s">
         <v>50</v>
       </c>
@@ -5428,7 +5551,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C25" s="66" t="str">
         <f>FI_Process!E19</f>
         <v>DMD_FIN_ELC</v>
@@ -5463,15 +5586,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5666,6 +5780,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5678,14 +5801,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5704,6 +5819,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>

--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceoll\Documents\Masters\MASTERS SELECT\AGH\IERP\ELAND-main\ELAND-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7746AD8B-66A4-47AB-815C-4D16D869757F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F025D-FF13-4952-A2AB-C4A0186A3D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
     <sheet name="GRID" sheetId="13" r:id="rId8"/>
     <sheet name="Demand" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -563,6 +564,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{A8E4464F-8E50-43AD-A47C-1F2A9A6240D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -612,7 +647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="227">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1221,6 +1256,78 @@
   </si>
   <si>
     <t>Electricity medium voltage</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND-ON</t>
+  </si>
+  <si>
+    <t>WIND-ON</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
+  </si>
+  <si>
+    <t>PEAK</t>
+  </si>
+  <si>
+    <t>Peak EQ factor</t>
+  </si>
+  <si>
+    <t>ELE_EX_PV</t>
+  </si>
+  <si>
+    <t>Electricity pv peak</t>
+  </si>
+  <si>
+    <t>Electricity wind peak</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>CSET_CN</t>
+  </si>
+  <si>
+    <t>COM_PKRSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\I: </t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Value in Region</t>
+  </si>
+  <si>
+    <t>Commodity name</t>
+  </si>
+  <si>
+    <t>\I: Attribute</t>
+  </si>
+  <si>
+    <t>COM_PKFLX</t>
+  </si>
+  <si>
+    <t>2020, 2021</t>
+  </si>
+  <si>
+    <t>1R1MOH01</t>
+  </si>
+  <si>
+    <t>1R1MOH02</t>
+  </si>
+  <si>
+    <t>1R1MOH03</t>
+  </si>
+  <si>
+    <t>1R1MOH04</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1875,6 +1982,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1882,7 +2004,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2060,7 +2182,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,6 +2203,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2096,11 +2221,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3474,6 +3602,168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4766CB33-2A0C-4958-9AA7-113FBFBA1057}">
+  <dimension ref="B1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="121">
+        <v>0.18</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11">
+        <v>8.2480999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12">
+        <v>8.7642999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13">
+        <v>8.7522000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14">
+        <v>0.102677</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14610B-F5EC-4107-A8FB-0F277B7332F9}">
   <dimension ref="B2"/>
@@ -3514,7 +3804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -3780,25 +4070,25 @@
     </row>
     <row r="14" spans="2:12" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B14" s="18"/>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119" t="s">
+      <c r="D14" s="77"/>
+      <c r="E14" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="F14" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="G14" s="118" t="s">
+      <c r="G14" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118" t="s">
+      <c r="H14" s="77"/>
+      <c r="I14" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="23"/>
     </row>
     <row r="15" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3815,11 +4105,11 @@
       <c r="L15" s="21"/>
     </row>
     <row r="18" spans="3:5" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C19" s="62" t="s">
@@ -3894,7 +4184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -4289,29 +4579,29 @@
     </row>
     <row r="21" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="18"/>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="119" t="s">
+      <c r="E21" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="F21" s="119" t="s">
+      <c r="F21" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="119" t="s">
+      <c r="G21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="119" t="s">
+      <c r="H21" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="119" t="s">
+      <c r="I21" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
       <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4328,92 +4618,92 @@
       <c r="L22" s="21"/>
     </row>
     <row r="25" spans="2:12" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
     </row>
     <row r="26" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C26" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="113"/>
+      <c r="E26" s="114"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C27" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="116"/>
+      <c r="E27" s="117"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C28" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="114"/>
+      <c r="E28" s="115"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C29" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="115"/>
+      <c r="E29" s="116"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C30" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="114" t="s">
+      <c r="D30" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="E30" s="114"/>
+      <c r="E30" s="115"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C31" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="115"/>
+      <c r="E31" s="116"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C32" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="114" t="s">
+      <c r="D32" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="114"/>
+      <c r="E32" s="115"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C33" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="115" t="s">
+      <c r="D33" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="115"/>
+      <c r="E33" s="116"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C34" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="114"/>
+      <c r="E34" s="115"/>
     </row>
     <row r="35" spans="3:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C35" s="61" t="s">
@@ -4447,7 +4737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="149" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="76" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4624,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
   <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A4" zoomScale="72" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4931,34 +5221,34 @@
     </row>
     <row r="12" spans="2:16" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B12" s="18"/>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="68" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="68">
         <v>3</v>
       </c>
-      <c r="H12" s="119">
+      <c r="H12" s="68">
         <v>1</v>
       </c>
-      <c r="I12" s="119">
+      <c r="I12" s="68">
         <v>0.8</v>
       </c>
-      <c r="J12" s="119">
+      <c r="J12" s="68">
         <v>1</v>
       </c>
-      <c r="K12" s="119">
+      <c r="K12" s="68">
         <v>3</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="68">
         <v>3</v>
       </c>
       <c r="M12" s="23"/>
@@ -5019,10 +5309,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF049C56-8571-476E-80B4-2A2AA175E0B0}">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5033,7 +5323,7 @@
     <col min="7" max="7" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="90" t="s">
         <v>41</v>
       </c>
@@ -5047,7 +5337,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
     </row>
-    <row r="3" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="55" t="s">
         <v>22</v>
       </c>
@@ -5079,7 +5369,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="91" t="s">
         <v>43</v>
       </c>
@@ -5111,7 +5401,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="85" t="s">
         <v>50</v>
       </c>
@@ -5137,7 +5427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="89" t="str">
         <f>FI_Process!E17</f>
         <v>EX_ELC_GRID</v>
@@ -5165,7 +5455,161 @@
       <c r="J6" s="89"/>
       <c r="K6" s="89"/>
     </row>
-    <row r="7" spans="2:11" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+    </row>
+    <row r="10" spans="2:12" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>31536</v>
+      </c>
+      <c r="H12">
+        <v>6228</v>
+      </c>
+      <c r="I12">
+        <v>0.33</v>
+      </c>
+      <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
+        <v>225</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>31536</v>
+      </c>
+      <c r="H13">
+        <v>3955</v>
+      </c>
+      <c r="I13">
+        <v>0.05</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>72</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5176,8 +5620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5586,6 +6030,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5780,27 +6244,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5817,23 +6280,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V02.xlsx
+++ b/VT_ELAND_ALL_V02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceoll\Documents\Masters\MASTERS SELECT\AGH\IERP\ELAND-main\ELAND-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F025D-FF13-4952-A2AB-C4A0186A3D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19A139F-28C0-480A-9CC4-CDBBC45F808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="226">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1258,27 +1258,18 @@
     <t>Electricity medium voltage</t>
   </si>
   <si>
-    <t>ELE_EX_WIND-ON</t>
-  </si>
-  <si>
     <t>WIND-ON</t>
   </si>
   <si>
     <t>SOLAR</t>
   </si>
   <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
     <t>PEAK</t>
   </si>
   <si>
     <t>Peak EQ factor</t>
   </si>
   <si>
-    <t>ELE_EX_PV</t>
-  </si>
-  <si>
     <t>Electricity pv peak</t>
   </si>
   <si>
@@ -1328,6 +1319,12 @@
   </si>
   <si>
     <t>1R1MOH04</t>
+  </si>
+  <si>
+    <t>ELC_EX_WIND-ON</t>
+  </si>
+  <si>
+    <t>ELC_EX_PV</t>
   </si>
 </sst>
 </file>
@@ -3606,19 +3603,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4766CB33-2A0C-4958-9AA7-113FBFBA1057}">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="2" max="2" width="12.86328125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B2" s="56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
@@ -3629,19 +3627,19 @@
         <v>198</v>
       </c>
       <c r="D3" s="118" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="119" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4" s="119"/>
       <c r="D4" s="119"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="120" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C5" s="121">
         <v>0.18</v>
@@ -3653,7 +3651,7 @@
     <row r="7" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3661,10 +3659,10 @@
         <v>118</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>189</v>
@@ -3675,33 +3673,33 @@
     </row>
     <row r="10" spans="2:6" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B10" s="42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>189</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F11">
         <v>8.2480999999999999E-2</v>
@@ -3709,16 +3707,16 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F12">
         <v>8.7642999999999999E-2</v>
@@ -3726,16 +3724,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" t="s">
         <v>222</v>
-      </c>
-      <c r="E13" t="s">
-        <v>225</v>
       </c>
       <c r="F13">
         <v>8.7522000000000003E-2</v>
@@ -3743,16 +3741,16 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F14">
         <v>0.102677</v>
@@ -4184,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -4737,7 +4735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="76" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5311,8 +5309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF049C56-8571-476E-80B4-2A2AA175E0B0}">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5493,7 +5491,7 @@
         <v>105</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J10" s="55" t="s">
         <v>107</v>
@@ -5528,7 +5526,7 @@
         <v>110</v>
       </c>
       <c r="I11" s="91" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J11" s="91" t="s">
         <v>113</v>
@@ -5542,16 +5540,16 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
         <v>203</v>
       </c>
-      <c r="C12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" t="s">
-        <v>204</v>
-      </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -5577,16 +5575,16 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <v>1</v>
